--- a/p103.xlsx
+++ b/p103.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dragonnomada/Desktop/banjercito/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403B022A-B413-FF4F-A25D-FDBE9B093B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399A160E-02DD-E641-A3B9-09EBB2AEE719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8760" yWindow="2260" windowWidth="27240" windowHeight="16440" xr2:uid="{04C7CEB9-DD48-9B49-9D6A-D0D72B5C957C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="11">
   <si>
     <t>Cliente</t>
   </si>
@@ -65,10 +66,10 @@
     <t>Monto</t>
   </si>
   <si>
-    <t>Suma</t>
+    <t>Pendiente</t>
   </si>
   <si>
-    <t>Pendiente</t>
+    <t>Valor</t>
   </si>
 </sst>
 </file>
@@ -483,7 +484,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -555,7 +556,7 @@
         <v>15000</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="4">
         <v>6000</v>
@@ -606,7 +607,7 @@
         <v>12000</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="4">
         <v>10000</v>
@@ -657,7 +658,7 @@
         <v>18000</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="4">
         <v>6000</v>
@@ -708,7 +709,7 @@
         <v>9000</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -759,7 +760,7 @@
         <v>23000</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" s="4">
         <v>6000</v>
@@ -769,4 +770,291 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CEBADA4-38F7-A24F-ACC4-87E83C5C8526}">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScale="159" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>15000</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>15000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>15000</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>12000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>12000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>12000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>18000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>18000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>18000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>9000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>9000</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>9000</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>23000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>23000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>23000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>6000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>